--- a/doc/计划表/计划表.xlsx
+++ b/doc/计划表/计划表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VincentZzZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\flask.demo\doc\计划表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF769311-525D-4307-A5B7-4E613099AB3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3804941-14AA-4BC9-9AC9-B779E7A22609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37B66D7C-CD8C-4199-8A0C-9B9A638AD31C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>蒋贤伟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据爬取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始记录文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,27 +79,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深度循环神经网络（RNN）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立数据库模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务逻辑页面上半部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现质量价值评估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PageRank算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端框架完善</t>
+    <t>深度循环神经网络（RNN）
+实际：深度神经网络原理及实现（DNN）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PageRank算法
+实际：PageRank 与 评估实现论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架完善
+实际：补Vue基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端框架完善
+实际：登录与管理主界面实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立数据库模型
+实际：基础建立完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据爬取
+实际：京东万象样本数据爬取（仍然不足）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据网站分析，分配任务到大二
+市场法结构解析</t>
+  </si>
+  <si>
+    <t>实现市场法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成基本接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中式爬取框架（数据采集器demo）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现质量价值评估
+实际：深度循环神经网络（RNN、LSTM、GRU）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看 RNN 实现市场法博客、论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档相关汇总整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +241,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,7 +271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,6 +284,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,28 +305,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9687ED8-65A6-4848-96EC-B61F89B67408}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,19 +767,19 @@
       <c r="A2" s="1">
         <v>44229</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -713,119 +787,140 @@
       <c r="A3" s="1">
         <v>44230</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44231</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44232</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44234</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44235</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="11"/>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44236</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44237</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44238</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44239</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44240</v>
       </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -938,7 +1033,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C12:D13"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>

--- a/doc/计划表/计划表.xlsx
+++ b/doc/计划表/计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\flask.demo\doc\计划表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3804941-14AA-4BC9-9AC9-B779E7A22609}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA8C31A-2A99-40B7-90EA-A323A733320E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37B66D7C-CD8C-4199-8A0C-9B9A638AD31C}"/>
   </bookViews>
@@ -293,6 +293,21 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,48 +318,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +732,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D13"/>
+      <selection activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,19 +767,19 @@
       <c r="A2" s="1">
         <v>44229</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -787,31 +787,31 @@
       <c r="A3" s="1">
         <v>44230</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44231</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44232</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -831,13 +831,13 @@
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -845,41 +845,41 @@
       <c r="A8" s="1">
         <v>44235</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44236</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44237</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="21" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -887,30 +887,30 @@
       <c r="A11" s="1">
         <v>44238</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44239</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -918,9 +918,9 @@
       <c r="A13" s="1">
         <v>44240</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
